--- a/R1R2_(1.01).xlsx
+++ b/R1R2_(1.01).xlsx
@@ -65,168 +65,168 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6673475639253917</v>
+        <v>0.6673475850495608</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6648676925835459</v>
+        <v>0.6648677087235526</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6609970427143416</v>
+        <v>0.660997053033705</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6550078971057197</v>
+        <v>0.6550079014025059</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6458640734956613</v>
+        <v>0.6458640723875323</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6321849737125494</v>
+        <v>0.6321849684500549</v>
       </c>
       <c r="G1" t="n">
-        <v>0.612329384720983</v>
+        <v>0.612329376796985</v>
       </c>
       <c r="H1" t="n">
-        <v>0.584728680000352</v>
+        <v>0.5847286709489697</v>
       </c>
       <c r="I1" t="n">
-        <v>0.548562219948921</v>
+        <v>0.5485622114310393</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5046131817491807</v>
+        <v>0.5046131755089118</v>
       </c>
       <c r="K1" t="n">
-        <v>0.45570591344084915</v>
+        <v>0.45570591066789023</v>
       </c>
       <c r="L1" t="n">
-        <v>0.406035970073942</v>
+        <v>0.40603597049160917</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3595236187493683</v>
+        <v>0.35952362059404047</v>
       </c>
       <c r="N1" t="n">
-        <v>0.31836293358088313</v>
+        <v>0.3183629349479155</v>
       </c>
       <c r="O1" t="n">
-        <v>0.28278309873404883</v>
+        <v>0.2827830989693194</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2518709575759127</v>
+        <v>0.25187095723172537</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2245751016014882</v>
+        <v>0.22457510135127903</v>
       </c>
       <c r="R1" t="n">
-        <v>0.200217427886269</v>
+        <v>0.20021742786248295</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1784526724206585</v>
+        <v>0.17845267245067387</v>
       </c>
       <c r="T1" t="n">
-        <v>#NUM!</v>
+        <v>0.1590420550405464</v>
       </c>
       <c r="U1" t="n">
-        <v>#NUM!</v>
+        <v>0.1417453846290978</v>
       </c>
       <c r="V1" t="n">
-        <v>#NUM!</v>
+        <v>0.12633086967166568</v>
       </c>
       <c r="W1" t="n">
-        <v>#NUM!</v>
+        <v>0.1125925325926293</v>
       </c>
       <c r="X1" t="n">
-        <v>#NUM!</v>
+        <v>0.10034819654094498</v>
       </c>
       <c r="Y1" t="n">
-        <v>#NUM!</v>
+        <v>0.08943542535492957</v>
       </c>
       <c r="Z1" t="n">
-        <v>#NUM!</v>
+        <v>0.07970940736273052</v>
       </c>
       <c r="AA1" t="n">
-        <v>#NUM!</v>
+        <v>0.07104108451521936</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.0340956862269697</v>
+        <v>-2.0340957067778764</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.636241506988211</v>
+        <v>-1.636241529416197</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3251541325971514</v>
+        <v>-1.3251541556376056</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0839217466609012</v>
+        <v>-1.0839217686331892</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8990528506753381</v>
+        <v>-0.8990528699131158</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.759541475541026</v>
+        <v>-0.7595414908339764</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6559836751269632</v>
+        <v>-0.6559836858465096</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5797835548951399</v>
+        <v>-0.5797835608383972</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5226560012747176</v>
+        <v>-0.5226560026331932</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4767802020093137</v>
+        <v>-0.4767801997034147</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.43576357711603547</v>
+        <v>-0.4357635730792948</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.39585637013199837</v>
+        <v>-0.3958563667445801</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.35629404427830674</v>
+        <v>-0.3562940429746048</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.31826210352271644</v>
+        <v>-0.3182621039620841</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.28326508193120237</v>
+        <v>-0.28326508277815426</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2520507705230412</v>
+        <v>-0.25205077089238526</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.22450057123440947</v>
+        <v>-0.22450057117644487</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2000979293701386</v>
+        <v>-0.20009792926639047</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.17836538688356662</v>
+        <v>-0.17836538686976078</v>
       </c>
       <c r="T2" t="n">
-        <v>#NUM!</v>
+        <v>-0.15897968889583922</v>
       </c>
       <c r="U2" t="n">
-        <v>#NUM!</v>
+        <v>-0.14169605750915584</v>
       </c>
       <c r="V2" t="n">
-        <v>#NUM!</v>
+        <v>-0.1262913701645337</v>
       </c>
       <c r="W2" t="n">
-        <v>#NUM!</v>
+        <v>-0.11256116059543338</v>
       </c>
       <c r="X2" t="n">
-        <v>#NUM!</v>
+        <v>-0.10032328139374799</v>
       </c>
       <c r="Y2" t="n">
-        <v>#NUM!</v>
+        <v>-0.08941563314601123</v>
       </c>
       <c r="Z2" t="n">
-        <v>#NUM!</v>
+        <v>-0.07969368530903527</v>
       </c>
       <c r="AA2" t="n">
-        <v>#NUM!</v>
+        <v>-0.07102859564170866</v>
       </c>
     </row>
   </sheetData>
@@ -244,168 +244,168 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6673422173254125</v>
+        <v>0.6673475850495608</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6648629748991112</v>
+        <v>0.6648677087235526</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6609931488232764</v>
+        <v>0.660997053033705</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6550050039243489</v>
+        <v>0.6550079014025059</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6458622919706045</v>
+        <v>0.6458640723875323</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6321843102813315</v>
+        <v>0.6321849684500549</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6123297275059948</v>
+        <v>0.612329376796985</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5847298020034798</v>
+        <v>0.5847286709489697</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5485637860899614</v>
+        <v>0.5485622114310393</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5046147794912443</v>
+        <v>0.5046131755089118</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4557071524803875</v>
+        <v>0.45570591066789023</v>
       </c>
       <c r="L1" t="n">
-        <v>0.4060366391224523</v>
+        <v>0.40603597049160917</v>
       </c>
       <c r="M1" t="n">
-        <v>0.35952377856246914</v>
+        <v>0.35952362059404047</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3183628350175871</v>
+        <v>0.3183629349479155</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2827829844432011</v>
+        <v>0.2827830989693194</v>
       </c>
       <c r="P1" t="n">
-        <v>0.25187092504065345</v>
+        <v>0.25187095723172537</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.22457512280749642</v>
+        <v>0.22457510135127903</v>
       </c>
       <c r="R1" t="n">
-        <v>0.2002174517903891</v>
+        <v>0.20021742786248295</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17845268359475192</v>
+        <v>0.17845267245067387</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1590420603823726</v>
+        <v>0.1590420550405464</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1417453887805542</v>
+        <v>0.1417453846290978</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12633087280424574</v>
+        <v>0.12633086967166568</v>
       </c>
       <c r="W1" t="n">
-        <v>0.11259253477984958</v>
+        <v>0.1125925325926293</v>
       </c>
       <c r="X1" t="n">
-        <v>0.10034819808685799</v>
+        <v>0.10034819654094498</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08943542645029098</v>
+        <v>0.08943542535492957</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07970940813813984</v>
+        <v>0.07970940736273052</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.07104108506419562</v>
+        <v>0.07104108451521936</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.034092504627646</v>
+        <v>-2.0340957067778764</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.6362378205004413</v>
+        <v>-1.636241529416197</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.3251500160398595</v>
+        <v>-1.3251541556376056</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0839173634144612</v>
+        <v>-1.0839217686331892</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8990484464340915</v>
+        <v>-0.8990528699131158</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7595373436243342</v>
+        <v>-0.7595414908339764</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6559801093359596</v>
+        <v>-0.6559836858465096</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5797808070811677</v>
+        <v>-0.5797835608383972</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5226542355863323</v>
+        <v>-0.5226560026331932</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.47677942749017127</v>
+        <v>-0.4767801997034147</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4357635872465446</v>
+        <v>-0.4357635730792948</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.39585677785909607</v>
+        <v>-0.3958563667445801</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.35629445262392706</v>
+        <v>-0.3562940429746048</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3182622983003181</v>
+        <v>-0.3182621039620841</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2832650797473703</v>
+        <v>-0.28326508277815426</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.25205069917156053</v>
+        <v>-0.25205077089238526</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2245005220965604</v>
+        <v>-0.22450057117644487</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.200097913107568</v>
+        <v>-0.20009792926639047</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1783653814644845</v>
+        <v>-0.17836538686976078</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1589796835880551</v>
+        <v>-0.15897968889583922</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.14169605295022553</v>
+        <v>-0.14169605750915584</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12629136704263186</v>
+        <v>-0.1262913701645337</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.11256115841815535</v>
+        <v>-0.11256116059543338</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.10032327984552591</v>
+        <v>-0.10032328139374799</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08941563205024343</v>
+        <v>-0.08941563314601123</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07969368453331845</v>
+        <v>-0.07969368530903527</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.07102859509253936</v>
+        <v>-0.07102859564170866</v>
       </c>
     </row>
   </sheetData>
